--- a/Sorption Experiments/Radium Blank/RadiumBlank.xlsx
+++ b/Sorption Experiments/Radium Blank/RadiumBlank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
   <si>
     <t>Parameters</t>
   </si>
@@ -175,21 +178,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -199,15 +193,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -295,15 +277,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -445,26 +421,33 @@
     <t>Gamma Counter</t>
   </si>
   <si>
-    <t>USE FOR Bq-&gt;CPS</t>
-  </si>
-  <si>
     <t>%Error</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
+  </si>
+  <si>
+    <t>Total in Solution (Bq)</t>
+  </si>
+  <si>
+    <t>Total Expected (Bq)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -521,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -548,17 +531,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -571,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,7 +551,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -588,48 +560,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -639,6 +599,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +623,415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7375179093564292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12652001269851265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0339381254012432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.555200391349953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9801326442823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.96292673562442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="400857096"/>
+        <c:axId val="492418424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="400857096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="492418424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492418424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="400857096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample Parameters"/>
+      <sheetName val="Scintillation Counter Results"/>
+      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Quality Control Notes"/>
+      <sheetName val="Calibration Data"/>
+      <sheetName val="Stock Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="F3">
+            <v>3.4640522875816994E-3</v>
+          </cell>
+          <cell r="I3">
+            <v>0.31819999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>7.9815435847137763E-3</v>
+          </cell>
+          <cell r="I4">
+            <v>1.591</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>1.2604166666666666E-2</v>
+          </cell>
+          <cell r="I5">
+            <v>3.1819999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>5.0219907407407408E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>15.91</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>9.4872685185185185E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>31.82</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0.39049768518518518</v>
+          </cell>
+          <cell r="I8">
+            <v>159.1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-1.7375179093564292</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.12652001269851265</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>2.0339381254012432</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>17.555200391349953</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>35.9801326442823</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>157.96292673562442</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +1330,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -976,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,10 +1370,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1438.3389999999999</v>
+        <v>675.45997631774435</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>0.13742948708443162</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1019,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView topLeftCell="G41" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:S79"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,14 +1414,15 @@
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
@@ -1069,24 +1448,20 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -1111,16 +1486,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.6893013764520717</v>
+      </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1131,11 +1506,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -1146,34 +1521,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
+        <v>8.599999999999999E-6</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.7375179093564292</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1184,11 +1551,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -1199,34 +1566,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.12652001269851265</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1237,11 +1596,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -1252,34 +1611,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
+        <v>2.0339381254012432</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1290,11 +1641,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -1305,34 +1656,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
+        <v>17.555200391349953</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1343,11 +1686,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -1357,34 +1700,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
+        <v>35.9801326442823</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1395,11 +1730,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -1410,968 +1745,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
+        <v>157.96292673562442</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>780.8240178086387</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="24"/>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="24"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="25"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="25"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="24"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="25"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="24"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="24"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="24"/>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="24"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+    </row>
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>84</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2379,17 +3025,32 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="K46" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2397,17 +3058,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="K47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2415,16 +3093,35 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="K48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99924092193949743</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2433,13 +3130,35 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99848242007849675</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -2448,17 +3167,35 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="K50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99810302509812088</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2467,16 +3204,36 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="K51" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" s="11">
-        <v>0.99913678675732565</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6923524740569098</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2484,18 +3241,36 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="K52" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L52" s="11">
-        <v>0.99827431865175364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="9">
+        <v>6</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2503,315 +3278,450 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="K53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="11">
-        <v>0.99792918238210437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="K54" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L54" s="11">
-        <v>6.4172812792738041E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="K55" s="14" t="s">
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L55" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="D57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2631.7755155575519</v>
+      </c>
+      <c r="F57" s="7">
+        <v>8.6408056270436361E-7</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="K57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>28.995047378241452</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7.248761844560363</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16" t="s">
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M58" s="16" t="s">
+      <c r="B59" s="9">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N58" s="16" t="s">
+      <c r="C61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O58" s="16" t="s">
+      <c r="E61" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="P58" s="16" t="s">
+      <c r="F61" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
+      <c r="G61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-3.166878676942801</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.3307749314427235</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.3797252278486458</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.6011981534629777E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" s="11">
-        <v>1</v>
-      </c>
-      <c r="M59" s="11">
-        <v>0.11911362695768261</v>
-      </c>
-      <c r="N59" s="11">
-        <v>0.11911362695768261</v>
-      </c>
-      <c r="O59" s="11">
-        <v>2892.4062940883196</v>
-      </c>
-      <c r="P59" s="11">
-        <v>4.202891832629728E-8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L60" s="11">
-        <v>5</v>
-      </c>
-      <c r="M60" s="11">
-        <v>2.0590749508659015E-4</v>
-      </c>
-      <c r="N60" s="11">
-        <v>4.1181499017318032E-5</v>
-      </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" s="14">
-        <v>6</v>
-      </c>
-      <c r="M61" s="14">
-        <v>0.1193195344527692</v>
-      </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R63" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S63" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>412.62678762399031</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8.0432764859340793</v>
+      </c>
+      <c r="D63" s="9">
+        <v>51.300833478195578</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8.6408056270436361E-7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="G63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="H63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="I63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2821,38 +3731,31 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="K64" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L64" s="11">
-        <v>6.5532103935362629E-3</v>
-      </c>
-      <c r="M64" s="11">
-        <v>2.7845814004832238E-3</v>
-      </c>
-      <c r="N64" s="11">
-        <v>2.353391569877989</v>
-      </c>
-      <c r="O64" s="11">
-        <v>6.5284513122608578E-2</v>
-      </c>
-      <c r="P64" s="11">
-        <v>-6.0478397439664346E-4</v>
-      </c>
-      <c r="Q64" s="11">
-        <v>1.371120476146917E-2</v>
-      </c>
-      <c r="R64" s="11">
-        <v>-6.0478397439664346E-4</v>
-      </c>
-      <c r="S64" s="11">
-        <v>1.371120476146917E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2861,35 +3764,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="K65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L65" s="14">
-        <v>1.3142284940968337E-3</v>
-      </c>
-      <c r="M65" s="14">
-        <v>2.4436625324215322E-5</v>
-      </c>
-      <c r="N65" s="14">
-        <v>53.781096066260311</v>
-      </c>
-      <c r="O65" s="14">
-        <v>4.202891832629728E-8</v>
-      </c>
-      <c r="P65" s="14">
-        <v>1.2514121489141555E-3</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>1.377044839279512E-3</v>
-      </c>
-      <c r="R65" s="14">
-        <v>1.2514121489141555E-3</v>
-      </c>
-      <c r="S65" s="14">
-        <v>1.377044839279512E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2899,50 +3797,106 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="25"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2950,19 +3904,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="K69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-1.7375179093564292</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.0557179093564293</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2970,16 +3943,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.12652001269851265</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.4644799873014873</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2987,25 +3982,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="K71" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.0339381254012432</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1.1480618745987567</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -3013,25 +4021,16 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="K72" s="11">
-        <v>1</v>
-      </c>
-      <c r="L72" s="11">
-        <v>6.5532103935362629E-3</v>
-      </c>
-      <c r="M72" s="11">
-        <v>-5.3958029861288555E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>17.555200391349953</v>
+      </c>
+      <c r="C73" s="7">
+        <v>-1.6452003913499524</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -3039,25 +4038,16 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="K73" s="11">
-        <v>2</v>
-      </c>
-      <c r="L73" s="11">
-        <v>7.3263710166134302E-3</v>
-      </c>
-      <c r="M73" s="11">
-        <v>-3.8623187290317308E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>35.9801326442823</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-4.1601326442822995</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -3065,63 +4055,35 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="K74" s="11">
-        <v>3</v>
-      </c>
-      <c r="L74" s="11">
-        <v>1.04190135089221E-2</v>
-      </c>
-      <c r="M74" s="11">
-        <v>-2.4374699242083239E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K75" s="11">
-        <v>4</v>
-      </c>
-      <c r="L75" s="11">
-        <v>1.4284816624307937E-2</v>
-      </c>
-      <c r="M75" s="11">
-        <v>-1.6806499576412712E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K76" s="11">
-        <v>5</v>
-      </c>
-      <c r="L76" s="11">
-        <v>4.5211241547394629E-2</v>
-      </c>
-      <c r="M76" s="11">
-        <v>5.0086658600127787E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K77" s="11">
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
         <v>6</v>
       </c>
-      <c r="L77" s="11">
-        <v>8.3869272701252995E-2</v>
-      </c>
-      <c r="M77" s="11">
-        <v>1.100341248393219E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K78" s="14">
-        <v>7</v>
-      </c>
-      <c r="L78" s="14">
-        <v>0.39313352193211992</v>
-      </c>
-      <c r="M78" s="14">
-        <v>-2.6358367469347388E-3</v>
-      </c>
+      <c r="B75" s="9">
+        <v>157.96292673562442</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1.137073264375573</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3160,11 +4122,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>75.400000000000006</v>
@@ -3180,11 +4142,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>91.1</v>
@@ -3200,11 +4162,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>64.599999999999994</v>
@@ -3220,11 +4182,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>104.4</v>
@@ -3240,11 +4202,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>103.9</v>
@@ -3260,11 +4222,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>109.7</v>
@@ -3280,11 +4242,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>265.8</v>
@@ -3300,11 +4262,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>230.2</v>
@@ -3320,11 +4282,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>273.5</v>
@@ -3340,11 +4302,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>492.7</v>
@@ -3360,11 +4322,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>507.9</v>
@@ -3380,11 +4342,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>469.8</v>
@@ -3400,11 +4362,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>1112.8</v>
@@ -3420,11 +4382,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>1090.9000000000001</v>
@@ -3440,11 +4402,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>1203.8</v>
@@ -3460,11 +4422,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C17">
         <v>2420.1</v>
@@ -3480,11 +4442,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C18">
         <v>2166.8000000000002</v>
@@ -3500,11 +4462,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>42459.724305555559</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>2342.6</v>
@@ -3526,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,14 +4503,15 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -3557,297 +4520,295 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D2">
-        <f>2.2/100*C2</f>
-        <v>1.5840000000000001E-3</v>
+        <v>124</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1">
-        <f>(C2-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>49.798638441057527</v>
-      </c>
-      <c r="G2" s="23"/>
+        <v>26.75</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="H2">
         <f>F2*10</f>
-        <v>497.98638441057528</v>
+        <v>267.5</v>
       </c>
       <c r="I2">
-        <f>(500-H2)/500</f>
-        <v>4.0272311788494336E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>0.348*Parameters!$B$6</f>
+        <v>235.06007175857502</v>
+      </c>
+      <c r="J2">
+        <f>(H2-I2)/H2</f>
+        <v>0.12127075978102796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D3">
-        <f>2.2/100*C3</f>
-        <v>1.5840000000000001E-3</v>
+        <v>125</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1">
-        <f>(C3-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>49.798638441057527</v>
-      </c>
-      <c r="G3" s="23"/>
+        <v>27.1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1.024</v>
+      </c>
       <c r="H3">
         <f>F3*10</f>
-        <v>497.98638441057528</v>
+        <v>271</v>
       </c>
       <c r="I3">
-        <f>(500-H3)/500</f>
-        <v>4.0272311788494336E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>0.348*Parameters!$B$6</f>
+        <v>235.06007175857502</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">(H3-I3)/H3</f>
+        <v>0.13261966140747225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D4">
-        <f>2.9/100*C4</f>
-        <v>1.8269999999999998E-3</v>
+        <v>126</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
-        <f>(C4-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>42.950514206629791</v>
-      </c>
-      <c r="G4" s="23"/>
+        <v>23.42</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.97750000000000004</v>
+      </c>
       <c r="H4">
         <f>F4*10</f>
-        <v>429.50514206629794</v>
+        <v>234.20000000000002</v>
       </c>
       <c r="I4">
-        <f>(500-H4)/500</f>
-        <v>0.14098971586740414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>0.348*Parameters!$B$6</f>
+        <v>235.06007175857502</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-3.6723815481426269E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D5">
-        <f>C5*2.8/100</f>
-        <v>1.82E-3</v>
+        <v>127</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1">
-        <f>(C5-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>44.472319592058184</v>
-      </c>
-      <c r="G5" s="23"/>
+        <v>24.43</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1.0089999999999999</v>
+      </c>
       <c r="H5">
         <f>F5*10</f>
-        <v>444.72319592058182</v>
+        <v>244.3</v>
       </c>
       <c r="I5">
-        <f>(500-H5)/500</f>
-        <v>0.11055360815883637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+        <f>0.348*Parameters!$B$6</f>
+        <v>235.06007175857502</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.7822055838825176E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="15"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="15"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,7 +4820,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:W23"/>
@@ -3913,34 +4874,34 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" t="s">
-        <v>100</v>
       </c>
       <c r="Q1" t="s">
         <v>29</v>
@@ -3961,7 +4922,7 @@
         <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4238,28 +5199,28 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/Radium Blank/RadiumBlank.xlsx
+++ b/Sorption Experiments/Radium Blank/RadiumBlank.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
   <si>
     <t>Parameters</t>
   </si>
@@ -325,60 +325,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>0A</t>
-  </si>
-  <si>
-    <t>0B</t>
-  </si>
-  <si>
-    <t>0C</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>10C</t>
-  </si>
-  <si>
-    <t>50A</t>
-  </si>
-  <si>
-    <t>50B</t>
-  </si>
-  <si>
-    <t>50C</t>
-  </si>
-  <si>
-    <t>100A</t>
-  </si>
-  <si>
-    <t>100B</t>
-  </si>
-  <si>
-    <t>100C</t>
-  </si>
-  <si>
-    <t>250A</t>
-  </si>
-  <si>
-    <t>250B</t>
-  </si>
-  <si>
-    <t>250C</t>
-  </si>
-  <si>
-    <t>500A</t>
-  </si>
-  <si>
-    <t>500B</t>
-  </si>
-  <si>
-    <t>500C</t>
-  </si>
-  <si>
     <t>sCw (Bq/mL)</t>
   </si>
   <si>
@@ -421,9 +367,6 @@
     <t>Gamma Counter</t>
   </si>
   <si>
-    <t>%Error</t>
-  </si>
-  <si>
     <t>(Known-Average)^2</t>
   </si>
   <si>
@@ -440,6 +383,12 @@
   </si>
   <si>
     <t>Total Expected (Bq)</t>
+  </si>
+  <si>
+    <t>Fractional Error</t>
+  </si>
+  <si>
+    <t>Counted Volume (mL)</t>
   </si>
 </sst>
 </file>
@@ -655,7 +604,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -706,7 +654,7 @@
             <c:numRef>
               <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31819999999999998</c:v>
@@ -806,11 +754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400857096"/>
-        <c:axId val="492418424"/>
+        <c:axId val="132257144"/>
+        <c:axId val="132258712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400857096"/>
+        <c:axId val="132257144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,19 +780,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492418424"/>
+        <c:crossAx val="132258712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492418424"/>
+        <c:axId val="132258712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,21 +813,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400857096"/>
+        <c:crossAx val="132257144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -944,10 +889,10 @@
       <sheetName val="Stock Log"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="F3">
@@ -1028,7 +973,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1300,7 +1245,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,10 +1315,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>675.45997631774435</v>
-      </c>
-      <c r="C6">
-        <v>0.13742948708443162</v>
+        <v>1407</v>
+      </c>
+      <c r="C6" s="17">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1400,7 +1345,7 @@
   <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1393,7 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>48</v>
@@ -1766,7 +1711,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2">
         <v>342248.6</v>
@@ -1804,7 +1749,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>2882.0033333333336</v>
@@ -1846,7 +1791,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -4092,7 +4037,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,364 +4067,58 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="D2">
-        <v>7.28</v>
-      </c>
-      <c r="E2">
-        <v>0.11</v>
-      </c>
-      <c r="F2">
-        <v>181.09</v>
-      </c>
+      <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3">
-        <v>91.1</v>
-      </c>
-      <c r="D3">
-        <v>6.63</v>
-      </c>
-      <c r="E3">
-        <v>25.26</v>
-      </c>
-      <c r="F3">
-        <v>191.98</v>
-      </c>
+      <c r="A3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="D4">
-        <v>7.87</v>
-      </c>
-      <c r="E4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F4">
-        <v>202.6</v>
-      </c>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>104.4</v>
-      </c>
-      <c r="D5">
-        <v>6.19</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>213.24</v>
-      </c>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>103.9</v>
-      </c>
-      <c r="D6">
-        <v>6.2</v>
-      </c>
-      <c r="E6">
-        <v>0.09</v>
-      </c>
-      <c r="F6">
-        <v>223.87</v>
-      </c>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7">
-        <v>109.7</v>
-      </c>
-      <c r="D7">
-        <v>6.04</v>
-      </c>
-      <c r="E7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F7">
-        <v>234.51</v>
-      </c>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8">
-        <v>265.8</v>
-      </c>
-      <c r="D8">
-        <v>3.88</v>
-      </c>
-      <c r="E8">
-        <v>0.04</v>
-      </c>
-      <c r="F8">
-        <v>245.14</v>
-      </c>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9">
-        <v>230.2</v>
-      </c>
-      <c r="D9">
-        <v>4.17</v>
-      </c>
-      <c r="E9">
-        <v>0.04</v>
-      </c>
-      <c r="F9">
-        <v>255.77</v>
-      </c>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10">
-        <v>273.5</v>
-      </c>
-      <c r="D10">
-        <v>3.82</v>
-      </c>
-      <c r="E10">
-        <v>0.02</v>
-      </c>
-      <c r="F10">
-        <v>266.5</v>
-      </c>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11">
-        <v>492.7</v>
-      </c>
-      <c r="D11">
-        <v>2.85</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>277.13</v>
-      </c>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12">
-        <v>507.9</v>
-      </c>
-      <c r="D12">
-        <v>2.81</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>287.76</v>
-      </c>
+      <c r="A12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13">
-        <v>469.8</v>
-      </c>
-      <c r="D13">
-        <v>2.92</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>298.39</v>
-      </c>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14">
-        <v>1112.8</v>
-      </c>
-      <c r="D14">
-        <v>1.9</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>309.02</v>
-      </c>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15">
-        <v>1090.9000000000001</v>
-      </c>
-      <c r="D15">
-        <v>1.91</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-      <c r="F15">
-        <v>319.66000000000003</v>
-      </c>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16">
-        <v>1203.8</v>
-      </c>
-      <c r="D16">
-        <v>1.82</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-      <c r="F16">
-        <v>330.29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17">
-        <v>2420.1</v>
-      </c>
-      <c r="D17">
-        <v>1.29</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>340.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18">
-        <v>2166.8000000000002</v>
-      </c>
-      <c r="D18">
-        <v>1.36</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>351.55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19">
-        <v>2342.6</v>
-      </c>
-      <c r="D19">
-        <v>1.31</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>362.2</v>
-      </c>
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4488,10 +4127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,11 +4141,13 @@
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4529,24 +4170,30 @@
         <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1">
         <v>26.75</v>
@@ -4554,28 +4201,35 @@
       <c r="G2" s="17">
         <v>1.0249999999999999</v>
       </c>
-      <c r="H2">
-        <f>F2*10</f>
+      <c r="H2" s="17">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="17">
+        <f>F2/H2*Parameters!$B$3</f>
         <v>267.5</v>
       </c>
-      <c r="I2">
-        <f>0.348*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
-      </c>
-      <c r="J2">
-        <f>(H2-I2)/H2</f>
-        <v>0.12127075978102796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="17">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K2" s="17">
+        <f>J2*Parameters!$B$6</f>
+        <v>489.63599999999997</v>
+      </c>
+      <c r="L2">
+        <f>ABS(I2-K2)/K2</f>
+        <v>0.45367579181269346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1">
         <v>27.1</v>
@@ -4583,28 +4237,35 @@
       <c r="G3" s="17">
         <v>1.024</v>
       </c>
-      <c r="H3">
-        <f>F3*10</f>
+      <c r="H3" s="17">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="17">
+        <f>F3/H3*Parameters!$B$3</f>
         <v>271</v>
       </c>
-      <c r="I3">
-        <f>0.348*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="0">(H3-I3)/H3</f>
-        <v>0.13261966140747225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="17">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K3" s="17">
+        <f>J3*Parameters!$B$6</f>
+        <v>489.63599999999997</v>
+      </c>
+      <c r="L3">
+        <f>ABS(I3-K3)/K3</f>
+        <v>0.44652762460276613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1">
         <v>23.42</v>
@@ -4612,28 +4273,35 @@
       <c r="G4" s="17">
         <v>0.97750000000000004</v>
       </c>
-      <c r="H4">
-        <f>F4*10</f>
+      <c r="H4" s="17">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="17">
+        <f>F4/H4*Parameters!$B$3</f>
         <v>234.20000000000002</v>
       </c>
-      <c r="I4">
-        <f>0.348*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>-3.6723815481426269E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="17">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K4" s="17">
+        <f>J4*Parameters!$B$6</f>
+        <v>489.63599999999997</v>
+      </c>
+      <c r="L4">
+        <f>ABS(I4-K4)/K4</f>
+        <v>0.52168549698143107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1">
         <v>24.43</v>
@@ -4641,152 +4309,173 @@
       <c r="G5" s="17">
         <v>1.0089999999999999</v>
       </c>
-      <c r="H5">
-        <f>F5*10</f>
+      <c r="H5" s="17">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="17">
+        <f>F5/H5*Parameters!$B$3</f>
         <v>244.3</v>
       </c>
-      <c r="I5">
-        <f>0.348*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>3.7822055838825176E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="17">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K5" s="17">
+        <f>J5*Parameters!$B$6</f>
+        <v>489.63599999999997</v>
+      </c>
+      <c r="L5">
+        <f>ABS(I5-K5)/K5</f>
+        <v>0.50105792874706923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
     </row>
@@ -4823,7 +4512,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:W23"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,7 +4611,7 @@
         <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -5199,28 +4888,28 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
